--- a/학습자료/단답형_국어_기출의지혜_복습목록_1일차.xlsx
+++ b/학습자료/단답형_국어_기출의지혜_복습목록_1일차.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,627 +434,555 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>질문</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>질문</t>
+          <t>대답</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>대답</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>消防官</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>消防官</t>
+          <t>소방관</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>소방관</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>科學者</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>科學者</t>
+          <t>과학자</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>과학자</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>硏究員</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>硏究員</t>
+          <t>연구원</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>연구원</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>일의 진행 과정에서 가장 중요한 대목
 그는 줄목을 무사히 넘겼다</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>줄목</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>줄목</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>이미 내디뎌 걷고 있는 그대로의 걸음
 그 사람들고 선걸음으로 그리 내달았다</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>선걸음</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>선걸음</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>물건 따위를 잘 정리하거나 간수함
 겨울 동안 갈무리를 했던 산나물을 팔았다</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>갈무리</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>갈무리</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>옷을 입고 매만진 맵시
 그는 인물보다 맨드리가 쓰레기꾼 축에 섞이기는 아까웠다</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>맨드리</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>맨드리</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>음식을 먹지 않음
 그녀는 잔입으로 출근 시간이 되기만을 기다렸다</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>잔입</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>잔입</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>護疾忌醫</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>護疾忌醫</t>
+          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>藏頭露尾</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>藏頭露尾</t>
+          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>倒行逆施</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>倒行逆施</t>
+          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>破邪顯正</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>破邪顯正</t>
+          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>의견란(발음)</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>의견란(발음)</t>
+          <t>의견난</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>의견난</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>임진란(발음)</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>임진란(발음)</t>
+          <t>임진난</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>임진난</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>생산량(발음)</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>생산량(발음)</t>
+          <t>생산냥</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>생산냥</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>결단력(발음)</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>결단력(발음)</t>
+          <t>결딴녁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>결딴녁</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>공권력(발음)</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>공권력(발음)</t>
+          <t>공꿘녁</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>공꿘녁</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>동원령(발음)</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>동원령(발음)</t>
+          <t>동원녕</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>동원녕</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>상견례(발음)</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>상견례(발음)</t>
+          <t>상견녜</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>상견녜</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>횡단로(발음)</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>횡단로(발음)</t>
+          <t>횡단노</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>횡단노</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>이원론(발음)</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>이원론(발음)</t>
+          <t>이원논</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>이원논</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>입원료(발음)</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>입원료(발음)</t>
+          <t>이붠뇨</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>이붠뇨</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>구근류(발음)</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>구근류(발음)</t>
+          <t>구근뉴</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>구근뉴</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>束手無策</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>束手無策</t>
+          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
